--- a/theo/outputs/RRC/correlations.xlsx
+++ b/theo/outputs/RRC/correlations.xlsx
@@ -532,52 +532,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.81364948506655</v>
+        <v>-0.5095120124967418</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08342261253823323</v>
+        <v>0.09752901485289361</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1065315088207544</v>
+        <v>0.09702166420048786</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6060763121132355</v>
+        <v>0.4144373229091839</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.8378179650071893</v>
+        <v>-0.5596267666515504</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.06514027498704203</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.06383841049882688</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.4114418618554993</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.3977239445521671</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.06514027498704203</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.06383841049882688</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.4114418618554993</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.3977239445521671</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.05942391687459775</v>
+        <v>-0.06718239316139114</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.0739577429103636</v>
+        <v>-0.1378786639984242</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.08293271414155323</v>
+        <v>-0.1148060578724232</v>
       </c>
     </row>
     <row r="3">
@@ -587,55 +587,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.81364948506655</v>
+        <v>-0.5095120124967418</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.145135095128225</v>
+        <v>-0.1316851950635864</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.2254182062328378</v>
+        <v>-0.08501644338951476</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.8965886917760298</v>
+        <v>-0.282066280601119</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7944472422950926</v>
+        <v>0.4235909627310043</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05086736036433592</v>
+        <v>0.03348534764683137</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05085626812506253</v>
+        <v>0.03526344118216085</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1543577420451838</v>
+        <v>0.2712952560700111</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1514699655870215</v>
+        <v>0.2844973267970234</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.06391780122695481</v>
+        <v>-0.1092619411652542</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.06387377182102309</v>
+        <v>-0.1073503784326995</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1343745677431482</v>
+        <v>0.2295309110534731</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1314264541075213</v>
+        <v>0.2425607674731332</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1243466933151483</v>
+        <v>0.008481872922580097</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.144999567334247</v>
+        <v>-0.04567802206619079</v>
       </c>
       <c r="R3" t="n">
-        <v>0.08371090259111397</v>
+        <v>0.0148415990044276</v>
       </c>
     </row>
     <row r="4">
@@ -645,55 +645,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08342261253823323</v>
+        <v>0.09752901485289361</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.145135095128225</v>
+        <v>-0.1316851950635864</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7311370682056839</v>
+        <v>0.8115385293088018</v>
       </c>
       <c r="F4" t="n">
-        <v>0.120047865316206</v>
+        <v>-0.009647703384640901</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.04721912462364202</v>
+        <v>0.004842363624759843</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0858811889768662</v>
+        <v>-0.007452156252727911</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.08542038569447827</v>
+        <v>-0.001625008760106659</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1187843366886131</v>
+        <v>-0.05446478738872132</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1157989976916509</v>
+        <v>-0.05378149774274633</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01327111248337664</v>
+        <v>0.03837019679959586</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01184706874126569</v>
+        <v>0.04647191170087781</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1234156758769617</v>
+        <v>-0.03260331657705932</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.1202710080448487</v>
+        <v>-0.0349677926903666</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3603219624554981</v>
+        <v>0.5112784030599161</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.280223623358801</v>
+        <v>0.1066747041861161</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9484596588276909</v>
+        <v>0.8753529471227192</v>
       </c>
     </row>
     <row r="5">
@@ -703,55 +703,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1065315088207544</v>
+        <v>0.09702166420048786</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2254182062328378</v>
+        <v>-0.08501644338951476</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7311370682056839</v>
+        <v>0.8115385293088018</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2463878643571651</v>
+        <v>0.2171949136550619</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1755623470748917</v>
+        <v>-0.1928736699206828</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.07610673696868818</v>
+        <v>0.09239347817748972</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.07542991841155572</v>
+        <v>0.09665995417331058</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.04052226721051069</v>
+        <v>0.1436053895563247</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.04106046215530793</v>
+        <v>0.1401908922052406</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05329307970608078</v>
+        <v>0.04510186217927745</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05204038429961724</v>
+        <v>0.05168722379979925</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.03818583817582815</v>
+        <v>0.1570622908657907</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.03845184227154824</v>
+        <v>0.1519141574433034</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.3729590622237404</v>
+        <v>-0.08723320965776923</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.276993163075869</v>
+        <v>-0.1400553451104146</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6326065076745643</v>
+        <v>0.582461463564518</v>
       </c>
     </row>
     <row r="6">
@@ -761,55 +761,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6060763121132355</v>
+        <v>0.4144373229091839</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.8965886917760298</v>
+        <v>-0.282066280601119</v>
       </c>
       <c r="D6" t="n">
-        <v>0.120047865316206</v>
+        <v>-0.009647703384640901</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2463878643571651</v>
+        <v>0.2171949136550619</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.7125446195693942</v>
+        <v>-0.8880211174143555</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.03568980690684907</v>
+        <v>0.1593320019465403</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.03613796276230393</v>
+        <v>0.1578810808103885</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.1379851151712524</v>
+        <v>0.7400736173182698</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.1409978309312717</v>
+        <v>0.7287017182720906</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05401108028633362</v>
+        <v>0.1138957718194222</v>
       </c>
       <c r="M6" t="n">
-        <v>0.05328539815585655</v>
+        <v>0.1145090410832626</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.1225037330819913</v>
+        <v>0.7328188561935831</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.1253690864555329</v>
+        <v>0.7218439781581816</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.1736236287571326</v>
+        <v>-0.3359094480825834</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.1906880017296592</v>
+        <v>-0.3005171678652822</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.1283783837686706</v>
+        <v>-0.2716187125366472</v>
       </c>
     </row>
     <row r="7">
@@ -819,55 +819,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.8378179650071893</v>
+        <v>-0.5596267666515504</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7944472422950926</v>
+        <v>0.4235909627310043</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.04721912462364202</v>
+        <v>0.004842363624759843</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1755623470748917</v>
+        <v>-0.1928736699206828</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.7125446195693942</v>
+        <v>-0.8880211174143555</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.05563146666189778</v>
+        <v>-0.1622662431202559</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.05553489957798313</v>
+        <v>-0.1608878596407209</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.4774252138435003</v>
+        <v>-0.7569623793815784</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.4798142812877074</v>
+        <v>-0.7472638713215543</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.08573256441210654</v>
+        <v>-0.1193518009007424</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.08607380922206526</v>
+        <v>-0.1200645158554116</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.4827471233815918</v>
+        <v>-0.7499966123808137</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.4852973875470592</v>
+        <v>-0.7406879105164828</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1758310361924029</v>
+        <v>0.2919438232065108</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2237951246308284</v>
+        <v>0.2399053562453004</v>
       </c>
       <c r="R7" t="n">
-        <v>0.131579400780076</v>
+        <v>0.2488268797137701</v>
       </c>
     </row>
     <row r="8">
@@ -877,55 +877,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.06514027498704203</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05086736036433592</v>
+        <v>0.03348534764683137</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0858811889768662</v>
+        <v>-0.007452156252727911</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.07610673696868818</v>
+        <v>0.09239347817748972</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.03568980690684907</v>
+        <v>0.1593320019465403</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.05563146666189778</v>
+        <v>-0.1622662431202559</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9989960899136013</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1901201763728441</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1899914005890257</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01838332978781464</v>
+        <v>-0.05879027111109878</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01877241932169961</v>
+        <v>-0.06101972664482513</v>
       </c>
       <c r="N8" t="n">
-        <v>0.164691426934996</v>
+        <v>0.178714854936767</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1652840017653004</v>
+        <v>0.1784179536203173</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.03026040668044333</v>
+        <v>-0.147093214012388</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.05459993377388558</v>
+        <v>-0.0936581075647482</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.07629100620883848</v>
+        <v>-0.1247884553433373</v>
       </c>
     </row>
     <row r="9">
@@ -935,55 +935,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.06383841049882688</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05085626812506253</v>
+        <v>0.03526344118216085</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.08542038569447827</v>
+        <v>-0.001625008760106659</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.07542991841155572</v>
+        <v>0.09665995417331058</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.03613796276230393</v>
+        <v>0.1578810808103885</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.05553489957798313</v>
+        <v>-0.1608878596407209</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9989960899136013</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1918098332885763</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1919061944957784</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01814662594676403</v>
+        <v>-0.05995818066435985</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01847381633338832</v>
+        <v>-0.06236230891497101</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1648518449429154</v>
+        <v>0.180337689372996</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1655616818715602</v>
+        <v>0.1802567609683901</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.03004065622586707</v>
+        <v>-0.1433662457394214</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.0536760860182959</v>
+        <v>-0.09571495932926823</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.07503856081897804</v>
+        <v>-0.1150307091974318</v>
       </c>
     </row>
     <row r="10">
@@ -993,55 +993,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.4114418618554993</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1543577420451838</v>
+        <v>0.2712952560700111</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1187843366886131</v>
+        <v>-0.05446478738872132</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04052226721051069</v>
+        <v>0.1436053895563247</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1379851151712524</v>
+        <v>0.7400736173182698</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.4774252138435003</v>
+        <v>-0.7569623793815784</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1901201763728441</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1918098332885763</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9992186682935502</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02839138939445308</v>
+        <v>0.04944672325485152</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02954189352736597</v>
+        <v>0.05056726154064502</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9775092980901551</v>
+        <v>0.972869648673649</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9774704811912206</v>
+        <v>0.9721048454354294</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.1061422340971321</v>
+        <v>-0.3040803384028993</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.1542906496720679</v>
+        <v>-0.2878574252309394</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.09294398682574505</v>
+        <v>-0.2536795768798428</v>
       </c>
     </row>
     <row r="11">
@@ -1051,55 +1051,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.3977239445521671</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1514699655870215</v>
+        <v>0.2844973267970234</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1157989976916509</v>
+        <v>-0.05378149774274633</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.04106046215530793</v>
+        <v>0.1401908922052406</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1409978309312717</v>
+        <v>0.7287017182720906</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.4798142812877074</v>
+        <v>-0.7472638713215543</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1899914005890257</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1919061944957784</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9992186682935502</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02631119308004725</v>
+        <v>0.04986733146957549</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02742452766327155</v>
+        <v>0.05103637438560256</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9770124487762495</v>
+        <v>0.9722891689540127</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9775264424518051</v>
+        <v>0.9730333164295306</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.1013462259039337</v>
+        <v>-0.297893170201751</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.1489074877222462</v>
+        <v>-0.2841571200771367</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.08888643499411758</v>
+        <v>-0.2467771094012249</v>
       </c>
     </row>
     <row r="12">
@@ -1109,55 +1109,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.06514027498704203</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.06391780122695481</v>
+        <v>-0.1092619411652542</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01327111248337664</v>
+        <v>0.03837019679959586</v>
       </c>
       <c r="E12" t="n">
-        <v>0.05329307970608078</v>
+        <v>0.04510186217927745</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05401108028633362</v>
+        <v>0.1138957718194222</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.08573256441210654</v>
+        <v>-0.1193518009007424</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01838332978781464</v>
+        <v>-0.05879027111109878</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01814662594676403</v>
+        <v>-0.05995818066435985</v>
       </c>
       <c r="J12" t="n">
-        <v>0.02839138939445308</v>
+        <v>0.04944672325485152</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02631119308004725</v>
+        <v>0.04986733146957549</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9989960899136013</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1901201763728441</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1899914005890257</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.04774522972927903</v>
+        <v>0.06455905119136657</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.02380560039217438</v>
+        <v>-0.03374172495330981</v>
       </c>
       <c r="R12" t="n">
-        <v>0.01423941505429584</v>
+        <v>0.03862739886975399</v>
       </c>
     </row>
     <row r="13">
@@ -1167,55 +1167,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.06383841049882688</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.06387377182102309</v>
+        <v>-0.1073503784326995</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01184706874126569</v>
+        <v>0.04647191170087781</v>
       </c>
       <c r="E13" t="n">
-        <v>0.05204038429961724</v>
+        <v>0.05168722379979925</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05328539815585655</v>
+        <v>0.1145090410832626</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.08607380922206526</v>
+        <v>-0.1200645158554116</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01877241932169961</v>
+        <v>-0.06101972664482513</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01847381633338832</v>
+        <v>-0.06236230891497101</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02954189352736597</v>
+        <v>0.05056726154064502</v>
       </c>
       <c r="K13" t="n">
-        <v>0.02742452766327155</v>
+        <v>0.05103637438560256</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9989960899136013</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1918098332885763</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1919061944957784</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.04832629936156562</v>
+        <v>0.0622917015333842</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.02574432881879462</v>
+        <v>-0.03469915449500641</v>
       </c>
       <c r="R13" t="n">
-        <v>0.01245764775529891</v>
+        <v>0.04139616695780021</v>
       </c>
     </row>
     <row r="14">
@@ -1225,55 +1225,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.4114418618554993</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1343745677431482</v>
+        <v>0.2295309110534731</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1234156758769617</v>
+        <v>-0.03260331657705932</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.03818583817582815</v>
+        <v>0.1570622908657907</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1225037330819913</v>
+        <v>0.7328188561935831</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.4827471233815918</v>
+        <v>-0.7499966123808137</v>
       </c>
       <c r="H14" t="n">
-        <v>0.164691426934996</v>
+        <v>0.178714854936767</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1648518449429154</v>
+        <v>0.180337689372996</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9775092980901551</v>
+        <v>0.972869648673649</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9770124487762495</v>
+        <v>0.9722891689540127</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1901201763728441</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1918098332885763</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9992186682935502</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.1141471232544586</v>
+        <v>-0.2882366866466106</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.1587185034411729</v>
+        <v>-0.2889101150455112</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.09725628004518826</v>
+        <v>-0.1865567281607132</v>
       </c>
     </row>
     <row r="15">
@@ -1283,55 +1283,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.3977239445521671</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1314264541075213</v>
+        <v>0.2425607674731332</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1202710080448487</v>
+        <v>-0.0349677926903666</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.03845184227154824</v>
+        <v>0.1519141574433034</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1253690864555329</v>
+        <v>0.7218439781581816</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.4852973875470592</v>
+        <v>-0.7406879105164828</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1652840017653004</v>
+        <v>0.1784179536203173</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1655616818715602</v>
+        <v>0.1802567609683901</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9774704811912206</v>
+        <v>0.9721048454354294</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9775264424518051</v>
+        <v>0.9730333164295306</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1899914005890257</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1919061944957784</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9992186682935502</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.1095766330943634</v>
+        <v>-0.2845002932132009</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.1535864176937986</v>
+        <v>-0.285350145279015</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.0931030164476196</v>
+        <v>-0.1838881652270481</v>
       </c>
     </row>
     <row r="16">
@@ -1341,55 +1341,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.05942391687459775</v>
+        <v>-0.06718239316139114</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1243466933151483</v>
+        <v>0.008481872922580097</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3603219624554981</v>
+        <v>0.5112784030599161</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.3729590622237404</v>
+        <v>-0.08723320965776923</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1736236287571326</v>
+        <v>-0.3359094480825834</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1758310361924029</v>
+        <v>0.2919438232065108</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.03026040668044333</v>
+        <v>-0.147093214012388</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.03004065622586707</v>
+        <v>-0.1433662457394214</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.1061422340971321</v>
+        <v>-0.3040803384028993</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.1013462259039337</v>
+        <v>-0.297893170201751</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.04774522972927903</v>
+        <v>0.06455905119136657</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.04832629936156562</v>
+        <v>0.0622917015333842</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.1141471232544586</v>
+        <v>-0.2882366866466106</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.1095766330943634</v>
+        <v>-0.2845002932132009</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.7598484348079635</v>
+        <v>0.3878729410259184</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4249488996045038</v>
+        <v>0.6357017262728153</v>
       </c>
     </row>
     <row r="17">
@@ -1399,55 +1399,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.0739577429103636</v>
+        <v>-0.1378786639984242</v>
       </c>
       <c r="C17" t="n">
-        <v>0.144999567334247</v>
+        <v>-0.04567802206619079</v>
       </c>
       <c r="D17" t="n">
-        <v>0.280223623358801</v>
+        <v>0.1066747041861161</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.276993163075869</v>
+        <v>-0.1400553451104146</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1906880017296592</v>
+        <v>-0.3005171678652822</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2237951246308284</v>
+        <v>0.2399053562453004</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.05459993377388558</v>
+        <v>-0.0936581075647482</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.0536760860182959</v>
+        <v>-0.09571495932926823</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.1542906496720679</v>
+        <v>-0.2878574252309394</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.1489074877222462</v>
+        <v>-0.2841571200771367</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.02380560039217438</v>
+        <v>-0.03374172495330981</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.02574432881879462</v>
+        <v>-0.03469915449500641</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.1587185034411729</v>
+        <v>-0.2889101150455112</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.1535864176937986</v>
+        <v>-0.285350145279015</v>
       </c>
       <c r="P17" t="n">
-        <v>0.7598484348079635</v>
+        <v>0.3878729410259184</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3393374054043992</v>
+        <v>0.204891669105796</v>
       </c>
     </row>
     <row r="18">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.08293271414155323</v>
+        <v>-0.1148060578724232</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08371090259111397</v>
+        <v>0.0148415990044276</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9484596588276909</v>
+        <v>0.8753529471227192</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6326065076745643</v>
+        <v>0.582461463564518</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1283783837686706</v>
+        <v>-0.2716187125366472</v>
       </c>
       <c r="G18" t="n">
-        <v>0.131579400780076</v>
+        <v>0.2488268797137701</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.07629100620883848</v>
+        <v>-0.1247884553433373</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.07503856081897804</v>
+        <v>-0.1150307091974318</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.09294398682574505</v>
+        <v>-0.2536795768798428</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.08888643499411758</v>
+        <v>-0.2467771094012249</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01423941505429584</v>
+        <v>0.03862739886975399</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01245764775529891</v>
+        <v>0.04139616695780021</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.09725628004518826</v>
+        <v>-0.1865567281607132</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.0931030164476196</v>
+        <v>-0.1838881652270481</v>
       </c>
       <c r="P18" t="n">
-        <v>0.4249488996045038</v>
+        <v>0.6357017262728153</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3393374054043992</v>
+        <v>0.204891669105796</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
@@ -1624,52 +1624,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1863684743311797</v>
+        <v>-0.7829498729061221</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5059116106770681</v>
+        <v>-0.009595389763589639</v>
       </c>
       <c r="E2" t="n">
-        <v>0.510910672846745</v>
+        <v>-0.01725217260435543</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9125292365146231</v>
+        <v>-0.1159397823762304</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1169963410590373</v>
+        <v>-0.7456268282129435</v>
       </c>
       <c r="H2" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.01960971039232118</v>
       </c>
       <c r="I2" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.01864970092193128</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.05536516640842758</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.05500218465205219</v>
       </c>
       <c r="L2" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.01960971039232118</v>
       </c>
       <c r="M2" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.01864970092193128</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.05536516640842758</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.05500218465205219</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.01675235880231756</v>
+        <v>0.0017166147658061</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.09068383327879143</v>
+        <v>-0.01398763628509915</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.1105540313008141</v>
+        <v>0.0185054485995211</v>
       </c>
     </row>
     <row r="3">
@@ -1679,55 +1679,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1863684743311797</v>
+        <v>-0.7829498729061221</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.07534010694356828</v>
+        <v>-0.04281944990533509</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.068031314596023</v>
+        <v>-0.02013141634320598</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1162448276679024</v>
+        <v>-0.1510522671643922</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8251503123414906</v>
+        <v>0.8599270432932924</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05745417635233986</v>
+        <v>0.02652072402559151</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05751797274156304</v>
+        <v>0.02763725109040363</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3165778952073075</v>
+        <v>0.1653124834327855</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3116488099819858</v>
+        <v>0.1650542304517421</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.05746864338659129</v>
+        <v>-0.05811646574606643</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.05734422810605635</v>
+        <v>-0.05687902220286249</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2971891830814635</v>
+        <v>0.1485275054973922</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2922350565058527</v>
+        <v>0.1483577093023367</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.002093105334223094</v>
+        <v>-0.02650489954130325</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.01404586819640572</v>
+        <v>-0.03429229909470982</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.02135046076436313</v>
+        <v>-0.0353449627887675</v>
       </c>
     </row>
     <row r="4">
@@ -1737,55 +1737,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5059116106770681</v>
+        <v>-0.009595389763589639</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.07534010694356828</v>
+        <v>-0.04281944990533509</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7252365899043799</v>
+        <v>0.7075523533763304</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5221950356311871</v>
+        <v>0.05160891922491588</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.003088083308112179</v>
+        <v>-0.02893843786120431</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.01481616675515068</v>
+        <v>-0.03189003042798888</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.01347445623176441</v>
+        <v>-0.02688891759885618</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1141863988115377</v>
+        <v>-0.01674226687877163</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1110284537229708</v>
+        <v>-0.01611067509377672</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.008499475188913396</v>
+        <v>-0.03091226144692501</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.008856118381615683</v>
+        <v>-0.02386470930477556</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1171884511774632</v>
+        <v>-0.0181874464818614</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.113877634034877</v>
+        <v>-0.01920476007574099</v>
       </c>
       <c r="P4" t="n">
-        <v>0.381730299763587</v>
+        <v>0.4060087174867436</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2374686446262153</v>
+        <v>0.1480676003369054</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5977186620995151</v>
+        <v>0.9181208142270679</v>
       </c>
     </row>
     <row r="5">
@@ -1795,55 +1795,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.510910672846745</v>
+        <v>-0.01725217260435543</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.068031314596023</v>
+        <v>-0.02013141634320598</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7252365899043799</v>
+        <v>0.7075523533763304</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5727257400712382</v>
+        <v>0.1799374980599537</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.04329106323041166</v>
+        <v>-0.04767523099225025</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.0260551836417947</v>
+        <v>0.03080889421206753</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.02603182249595326</v>
+        <v>0.03429069508065959</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.04310050022836153</v>
+        <v>0.05534153888020514</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.04146675768920986</v>
+        <v>0.05450267274331187</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006301670928776885</v>
+        <v>-0.07922405364584371</v>
       </c>
       <c r="M5" t="n">
-        <v>0.005858916382482694</v>
+        <v>-0.07348838127399651</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.04289473635930479</v>
+        <v>0.0444112358025715</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.04105360920728408</v>
+        <v>0.04251030297314341</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.3595174584290827</v>
+        <v>-0.3585232359966986</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.2085933603775491</v>
+        <v>-0.1209946123162886</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2729643625181233</v>
+        <v>0.5816940120262517</v>
       </c>
     </row>
     <row r="6">
@@ -1853,55 +1853,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9125292365146231</v>
+        <v>-0.1159397823762304</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1162448276679024</v>
+        <v>-0.1510522671643922</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5221950356311871</v>
+        <v>0.05160891922491588</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5727257400712382</v>
+        <v>0.1799374980599537</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.07515990729908592</v>
+        <v>-0.264954395311006</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.001222097019639046</v>
+        <v>0.04403052067398355</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.001500437997579193</v>
+        <v>0.04577233621631396</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.071658661735564</v>
+        <v>0.2359965989770327</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.06835596837026831</v>
+        <v>0.2380858684879092</v>
       </c>
       <c r="L6" t="n">
-        <v>5.893761662137863e-05</v>
+        <v>0.0433301301746313</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.0004431091117650667</v>
+        <v>0.04554828040324047</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.0714630892871788</v>
+        <v>0.2358670606451709</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.06818898008088864</v>
+        <v>0.2380359000284758</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.06625647771272436</v>
+        <v>-0.1645220978441625</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.1241394100352008</v>
+        <v>-0.2002294174749004</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.1269503986185143</v>
+        <v>-0.1490477565012832</v>
       </c>
     </row>
     <row r="7">
@@ -1911,55 +1911,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1169963410590373</v>
+        <v>-0.7456268282129435</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8251503123414906</v>
+        <v>0.8599270432932924</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.003088083308112179</v>
+        <v>-0.02893843786120431</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.04329106323041166</v>
+        <v>-0.04767523099225025</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.07515990729908592</v>
+        <v>-0.264954395311006</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.04137289881328313</v>
+        <v>-0.06762953362517195</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04140267268723049</v>
+        <v>-0.06759518801685395</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.2746334294809232</v>
+        <v>-0.361237587194674</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.2793758555011018</v>
+        <v>-0.3609022699240114</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.06000405957403208</v>
+        <v>-0.07369001671820456</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.05982699731207831</v>
+        <v>-0.07300303141440811</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.2783301762509222</v>
+        <v>-0.3622594271309837</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.2830609441876975</v>
+        <v>-0.3618281852688858</v>
       </c>
       <c r="P7" t="n">
-        <v>0.05426317417733123</v>
+        <v>0.02342607462557674</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0231474037103305</v>
+        <v>0.06235693696413168</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01950943368362832</v>
+        <v>0.02450994735103766</v>
       </c>
     </row>
     <row r="8">
@@ -1969,55 +1969,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.01960971039232118</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05745417635233986</v>
+        <v>0.02652072402559151</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.01481616675515068</v>
+        <v>-0.03189003042798888</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.0260551836417947</v>
+        <v>0.03080889421206753</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.001222097019639046</v>
+        <v>0.04403052067398355</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.04137289881328313</v>
+        <v>-0.06762953362517195</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.998553085193056</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1862520849978413</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1852618776689881</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.05712301967457724</v>
+        <v>-0.001429996941744203</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.05575559682641544</v>
+        <v>-0.004523524329262313</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1583508498118242</v>
+        <v>0.1835719758511684</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1586691146152148</v>
+        <v>0.1822398952264156</v>
       </c>
       <c r="P8" t="n">
-        <v>0.009634208144115372</v>
+        <v>-0.08709970205256053</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.04275726286789743</v>
+        <v>-0.05430168674718844</v>
       </c>
       <c r="R8" t="n">
-        <v>0.02036847947948598</v>
+        <v>-0.07048365214598418</v>
       </c>
     </row>
     <row r="9">
@@ -2027,55 +2027,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.01864970092193128</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05751797274156304</v>
+        <v>0.02763725109040363</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.01347445623176441</v>
+        <v>-0.02688891759885618</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.02603182249595326</v>
+        <v>0.03429069508065959</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.001500437997579193</v>
+        <v>0.04577233621631396</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04140267268723049</v>
+        <v>-0.06759518801685395</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.998553085193056</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1878474403515726</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1872617936212304</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.05612797095174527</v>
+        <v>-0.004065852871230358</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.05479620814956767</v>
+        <v>-0.007229387362854744</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1587056743767625</v>
+        <v>0.184830902648369</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1591522229518865</v>
+        <v>0.183898566079967</v>
       </c>
       <c r="P9" t="n">
-        <v>0.01145849573103268</v>
+        <v>-0.08436748437284754</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.04590743840772638</v>
+        <v>-0.05632612481249013</v>
       </c>
       <c r="R9" t="n">
-        <v>0.02337317420084243</v>
+        <v>-0.06580384094560851</v>
       </c>
     </row>
     <row r="10">
@@ -2085,55 +2085,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.05536516640842758</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3165778952073075</v>
+        <v>0.1653124834327855</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1141863988115377</v>
+        <v>-0.01674226687877163</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04310050022836153</v>
+        <v>0.05534153888020514</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.071658661735564</v>
+        <v>0.2359965989770327</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2746334294809232</v>
+        <v>-0.361237587194674</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1862520849978413</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1878474403515726</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9988802921949852</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004286069850222709</v>
+        <v>0.02851343799661076</v>
       </c>
       <c r="M10" t="n">
-        <v>0.004184491722236913</v>
+        <v>0.02971149858233238</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9733400454702574</v>
+        <v>0.9700103786972777</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9728538264299138</v>
+        <v>0.9690244702656674</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.0947225892048157</v>
+        <v>-0.09368592468182613</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.06280013052412227</v>
+        <v>-0.1831358666183912</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.06910000933070952</v>
+        <v>-0.1119300036128907</v>
       </c>
     </row>
     <row r="11">
@@ -2143,55 +2143,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.05500218465205219</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3116488099819858</v>
+        <v>0.1650542304517421</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1110284537229708</v>
+        <v>-0.01611067509377672</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.04146675768920986</v>
+        <v>0.05450267274331187</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.06835596837026831</v>
+        <v>0.2380858684879092</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2793758555011018</v>
+        <v>-0.3609022699240114</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1852618776689881</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1872617936212304</v>
       </c>
       <c r="J11" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9988802921949852</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003410368111363741</v>
+        <v>0.02879498790936734</v>
       </c>
       <c r="M11" t="n">
-        <v>0.003251022319510548</v>
+        <v>0.03007322603737642</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9728037310005035</v>
+        <v>0.9691235856378434</v>
       </c>
       <c r="O11" t="n">
-        <v>0.973138845170242</v>
+        <v>0.9703029364596056</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.09271364702631031</v>
+        <v>-0.09176673268351225</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.0600480265151005</v>
+        <v>-0.1821250563494902</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.06864538427487206</v>
+        <v>-0.1108340083700674</v>
       </c>
     </row>
     <row r="12">
@@ -2201,55 +2201,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.01960971039232118</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.05746864338659129</v>
+        <v>-0.05811646574606643</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.008499475188913396</v>
+        <v>-0.03091226144692501</v>
       </c>
       <c r="E12" t="n">
-        <v>0.006301670928776885</v>
+        <v>-0.07922405364584371</v>
       </c>
       <c r="F12" t="n">
-        <v>5.893761662137863e-05</v>
+        <v>0.0433301301746313</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.06000405957403208</v>
+        <v>-0.07369001671820456</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.05712301967457724</v>
+        <v>-0.001429996941744203</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.05612797095174527</v>
+        <v>-0.004065852871230358</v>
       </c>
       <c r="J12" t="n">
-        <v>0.004286069850222709</v>
+        <v>0.02851343799661076</v>
       </c>
       <c r="K12" t="n">
-        <v>0.003410368111363741</v>
+        <v>0.02879498790936734</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.998553085193056</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1862520849978413</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1852618776689881</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.02458622991807977</v>
+        <v>0.04756280747287481</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.001574791682833234</v>
+        <v>-0.02034729719227569</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.007005557741621795</v>
+        <v>-0.0600467646500531</v>
       </c>
     </row>
     <row r="13">
@@ -2259,55 +2259,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.01864970092193128</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.05734422810605635</v>
+        <v>-0.05687902220286249</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.008856118381615683</v>
+        <v>-0.02386470930477556</v>
       </c>
       <c r="E13" t="n">
-        <v>0.005858916382482694</v>
+        <v>-0.07348838127399651</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0004431091117650667</v>
+        <v>0.04554828040324047</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.05982699731207831</v>
+        <v>-0.07300303141440811</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.05575559682641544</v>
+        <v>-0.004523524329262313</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.05479620814956767</v>
+        <v>-0.007229387362854744</v>
       </c>
       <c r="J13" t="n">
-        <v>0.004184491722236913</v>
+        <v>0.02971149858233238</v>
       </c>
       <c r="K13" t="n">
-        <v>0.003251022319510548</v>
+        <v>0.03007322603737642</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.998553085193056</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1878474403515726</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1872617936212304</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.02449770104646163</v>
+        <v>0.0509011014808698</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.001475047549576377</v>
+        <v>-0.02000226622454373</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.006349395072829069</v>
+        <v>-0.05331355714946025</v>
       </c>
     </row>
     <row r="14">
@@ -2317,55 +2317,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.05536516640842758</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2971891830814635</v>
+        <v>0.1485275054973922</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1171884511774632</v>
+        <v>-0.0181874464818614</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.04289473635930479</v>
+        <v>0.0444112358025715</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0714630892871788</v>
+        <v>0.2358670606451709</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.2783301762509222</v>
+        <v>-0.3622594271309837</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1583508498118242</v>
+        <v>0.1835719758511684</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1587056743767625</v>
+        <v>0.184830902648369</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9733400454702574</v>
+        <v>0.9700103786972777</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9728037310005035</v>
+        <v>0.9691235856378434</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1862520849978413</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1878474403515726</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9988802921949852</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.09929807634257969</v>
+        <v>-0.08514374139449685</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.06202249182197739</v>
+        <v>-0.1852886630467485</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.07167927480566143</v>
+        <v>-0.09162005472889898</v>
       </c>
     </row>
     <row r="15">
@@ -2375,55 +2375,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.05500218465205219</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2922350565058527</v>
+        <v>0.1483577093023367</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.113877634034877</v>
+        <v>-0.01920476007574099</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.04105360920728408</v>
+        <v>0.04251030297314341</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.06818898008088864</v>
+        <v>0.2380359000284758</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.2830609441876975</v>
+        <v>-0.3618281852688858</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1586691146152148</v>
+        <v>0.1822398952264156</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1591522229518865</v>
+        <v>0.183898566079967</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9728538264299138</v>
+        <v>0.9690244702656674</v>
       </c>
       <c r="K15" t="n">
-        <v>0.973138845170242</v>
+        <v>0.9703029364596056</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1852618776689881</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1872617936212304</v>
       </c>
       <c r="N15" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9988802921949852</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.09736386594397382</v>
+        <v>-0.08361832663280015</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.05937294999940751</v>
+        <v>-0.1841008514528176</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.07089367457370295</v>
+        <v>-0.09212500163557014</v>
       </c>
     </row>
     <row r="16">
@@ -2433,55 +2433,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01675235880231756</v>
+        <v>0.0017166147658061</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.002093105334223094</v>
+        <v>-0.02650489954130325</v>
       </c>
       <c r="D16" t="n">
-        <v>0.381730299763587</v>
+        <v>0.4060087174867436</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.3595174584290827</v>
+        <v>-0.3585232359966986</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.06625647771272436</v>
+        <v>-0.1645220978441625</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05426317417733123</v>
+        <v>0.02342607462557674</v>
       </c>
       <c r="H16" t="n">
-        <v>0.009634208144115372</v>
+        <v>-0.08709970205256053</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01145849573103268</v>
+        <v>-0.08436748437284754</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.0947225892048157</v>
+        <v>-0.09368592468182613</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.09271364702631031</v>
+        <v>-0.09176673268351225</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.02458622991807977</v>
+        <v>0.04756280747287481</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.02449770104646163</v>
+        <v>0.0509011014808698</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.09929807634257969</v>
+        <v>-0.08514374139449685</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.09736386594397382</v>
+        <v>-0.08361832663280015</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.6018716459332414</v>
+        <v>0.3520747012586841</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4760369273737171</v>
+        <v>0.4606065272879518</v>
       </c>
     </row>
     <row r="17">
@@ -2491,55 +2491,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.09068383327879143</v>
+        <v>-0.01398763628509915</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.01404586819640572</v>
+        <v>-0.03429229909470982</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2374686446262153</v>
+        <v>0.1480676003369054</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.2085933603775491</v>
+        <v>-0.1209946123162886</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1241394100352008</v>
+        <v>-0.2002294174749004</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0231474037103305</v>
+        <v>0.06235693696413168</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04275726286789743</v>
+        <v>-0.05430168674718844</v>
       </c>
       <c r="I17" t="n">
-        <v>0.04590743840772638</v>
+        <v>-0.05632612481249013</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.06280013052412227</v>
+        <v>-0.1831358666183912</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0600480265151005</v>
+        <v>-0.1821250563494902</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.001574791682833234</v>
+        <v>-0.02034729719227569</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.001475047549576377</v>
+        <v>-0.02000226622454373</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.06202249182197739</v>
+        <v>-0.1852886630467485</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.05937294999940751</v>
+        <v>-0.1841008514528176</v>
       </c>
       <c r="P17" t="n">
-        <v>0.6018716459332414</v>
+        <v>0.3520747012586841</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.5442187077348978</v>
+        <v>0.2259094288762017</v>
       </c>
     </row>
     <row r="18">
@@ -2549,52 +2549,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1105540313008141</v>
+        <v>0.0185054485995211</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.02135046076436313</v>
+        <v>-0.0353449627887675</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5977186620995151</v>
+        <v>0.9181208142270679</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2729643625181233</v>
+        <v>0.5816940120262517</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1269503986185143</v>
+        <v>-0.1490477565012832</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01950943368362832</v>
+        <v>0.02450994735103766</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02036847947948598</v>
+        <v>-0.07048365214598418</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02337317420084243</v>
+        <v>-0.06580384094560851</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.06910000933070952</v>
+        <v>-0.1119300036128907</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.06864538427487206</v>
+        <v>-0.1108340083700674</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.007005557741621795</v>
+        <v>-0.0600467646500531</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.006349395072829069</v>
+        <v>-0.05331355714946025</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.07167927480566143</v>
+        <v>-0.09162005472889898</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.07089367457370295</v>
+        <v>-0.09212500163557014</v>
       </c>
       <c r="P18" t="n">
-        <v>0.4760369273737171</v>
+        <v>0.4606065272879518</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.5442187077348978</v>
+        <v>0.2259094288762017</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
@@ -2716,52 +2716,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.5421497698657863</v>
+        <v>-0.6062609409476384</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5670590147464997</v>
+        <v>-0.05412190654896867</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5598373462614268</v>
+        <v>-0.05605016039874287</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7692100806451468</v>
+        <v>-0.231703082358792</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.5241907629105079</v>
+        <v>-0.591759180690223</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00063019971322716</v>
+        <v>0.006323540982918517</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001782829608940185</v>
+        <v>0.005024893340872427</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.0220866110558817</v>
+        <v>0.01472360525290107</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.02382112679428315</v>
+        <v>0.01003708046921653</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00063019971322716</v>
+        <v>0.006323540982918517</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0001782829608940185</v>
+        <v>0.005024893340872427</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.0220866110558817</v>
+        <v>0.01472360525290107</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.02382112679428315</v>
+        <v>0.01003708046921653</v>
       </c>
       <c r="P2" t="n">
-        <v>0.03278743538109485</v>
+        <v>-0.002758053491249764</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.1205942488249974</v>
+        <v>-0.001002240431344328</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.01704576668710548</v>
+        <v>0.009919557526798309</v>
       </c>
     </row>
     <row r="3">
@@ -2771,55 +2771,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.5421497698657863</v>
+        <v>-0.6062609409476384</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.4151429783731446</v>
+        <v>-0.06339863925121969</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.4018148723993666</v>
+        <v>-0.05713837720819197</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5490318922553734</v>
+        <v>-0.2437595364948819</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9098819379908119</v>
+        <v>0.9146571412189581</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03778884491767613</v>
+        <v>0.02870768857890452</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03787345498271118</v>
+        <v>0.03012682080376033</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2301782790609064</v>
+        <v>0.1876091556642788</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2264352361051738</v>
+        <v>0.1901241940642348</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.03882601319489151</v>
+        <v>-0.04133501724961813</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.03864526987692174</v>
+        <v>-0.03971246913060682</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2172948544401279</v>
+        <v>0.174535240044087</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2135337740845544</v>
+        <v>0.177129220589404</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.03201328201338007</v>
+        <v>-0.00676562110197514</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0328258624092044</v>
+        <v>-0.005345595269281599</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.0237062193131504</v>
+        <v>-0.005303252868709199</v>
       </c>
     </row>
     <row r="4">
@@ -2829,55 +2829,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5670590147464997</v>
+        <v>-0.05412190654896867</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.4151429783731446</v>
+        <v>-0.06339863925121969</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8079688713323099</v>
+        <v>0.6823145677548836</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7056802624381007</v>
+        <v>0.1221864100892373</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.395918552233695</v>
+        <v>-0.03991911672853773</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.008412173814428259</v>
+        <v>-0.03002749057160828</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.007932935706425738</v>
+        <v>-0.02673571049134804</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.04786130376546804</v>
+        <v>-0.05224212812026775</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.04911434213698183</v>
+        <v>-0.05208806136906943</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.002653280595499959</v>
+        <v>0.006625810681363089</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.003254533094766197</v>
+        <v>0.01149773047380273</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.04910470280271267</v>
+        <v>-0.04387282533426976</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.05034905349114259</v>
+        <v>-0.04576988711758462</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3406556471016648</v>
+        <v>0.4093212990469597</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.001870529627448011</v>
+        <v>0.2066151670637316</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2793745914621267</v>
+        <v>0.869525008625358</v>
       </c>
     </row>
     <row r="5">
@@ -2887,55 +2887,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5598373462614268</v>
+        <v>-0.05605016039874287</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4018148723993666</v>
+        <v>-0.05713837720819197</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8079688713323099</v>
+        <v>0.6823145677548836</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7289264144823233</v>
+        <v>0.2487726202937755</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.4004099527217427</v>
+        <v>-0.06390626401309248</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.008883642745795039</v>
+        <v>0.003964326253547282</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.009553238901079456</v>
+        <v>0.007611530082331206</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.01084543295593506</v>
+        <v>0.01757477001007249</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.01124038349574497</v>
+        <v>0.01818432274493406</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004013866086611113</v>
+        <v>0.001281369044809378</v>
       </c>
       <c r="M5" t="n">
-        <v>0.003784897616836014</v>
+        <v>0.004518583366951265</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.01088924325053562</v>
+        <v>0.0241367490873715</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.01117514480216602</v>
+        <v>0.02282065306916871</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.2787433568514107</v>
+        <v>-0.3877249920898949</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.1080929040278991</v>
+        <v>-0.1586024865434902</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1141084438783591</v>
+        <v>0.5125339500397817</v>
       </c>
     </row>
     <row r="6">
@@ -2945,55 +2945,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692100806451468</v>
+        <v>-0.231703082358792</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5490318922553734</v>
+        <v>-0.2437595364948819</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7056802624381007</v>
+        <v>0.1221864100892373</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7289264144823233</v>
+        <v>0.2487726202937755</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.5476723223833594</v>
+        <v>-0.264456375763076</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001275065907672057</v>
+        <v>0.01304078752673462</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0009906822905251609</v>
+        <v>0.01309522012706443</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.01350520231868173</v>
+        <v>0.05510968081349163</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.01373981472560285</v>
+        <v>0.05742042486257416</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002559122545756721</v>
+        <v>0.0148484137414304</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002326493781731304</v>
+        <v>0.01545973551761951</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.01329062417733071</v>
+        <v>0.05542392840428872</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.01350674418492096</v>
+        <v>0.05782580787150261</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.01292697243921179</v>
+        <v>-0.1564160808683671</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.09970895457070136</v>
+        <v>-0.1647400231064275</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.04697018934361992</v>
+        <v>-0.1240789149193487</v>
       </c>
     </row>
     <row r="7">
@@ -3003,55 +3003,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5241907629105079</v>
+        <v>-0.591759180690223</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9098819379908119</v>
+        <v>0.9146571412189581</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.395918552233695</v>
+        <v>-0.03991911672853773</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.4004099527217427</v>
+        <v>-0.06390626401309248</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5476723223833594</v>
+        <v>-0.264456375763076</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.031587539764673</v>
+        <v>-0.04489194530562302</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.03132012402827247</v>
+        <v>-0.04416262641706398</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.194292402100531</v>
+        <v>-0.2254548528912803</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.1975774392545799</v>
+        <v>-0.2217879199663348</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.03299936388869475</v>
+        <v>-0.04932924303995975</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.03280337917313661</v>
+        <v>-0.04822478896997986</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.1946003793451011</v>
+        <v>-0.2262483945951002</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.1979062783622375</v>
+        <v>-0.2225159628051405</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.006391245112363666</v>
+        <v>0.02942446076127667</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.07152722109181084</v>
+        <v>0.05158892911250627</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02043428162814625</v>
+        <v>0.0287593572940852</v>
       </c>
     </row>
     <row r="8">
@@ -3061,55 +3061,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.00063019971322716</v>
+        <v>0.006323540982918517</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03778884491767613</v>
+        <v>0.02870768857890452</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.008412173814428259</v>
+        <v>-0.03002749057160828</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.008883642745795039</v>
+        <v>0.003964326253547282</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001275065907672057</v>
+        <v>0.01304078752673462</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.031587539764673</v>
+        <v>-0.04489194530562302</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9970863324831934</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1823696166110977</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1812492674067038</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.04289805790585169</v>
+        <v>0.04023786490292882</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.04225797328940766</v>
+        <v>0.03860301605995501</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1606509652284165</v>
+        <v>0.1872726429861831</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1607715958463615</v>
+        <v>0.1858009278165276</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.0002947113615300593</v>
+        <v>-0.04387746808687835</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0003036857201429574</v>
+        <v>-0.03736902422866833</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.0495693010698945</v>
+        <v>-0.0479201263120129</v>
       </c>
     </row>
     <row r="9">
@@ -3119,55 +3119,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0001782829608940185</v>
+        <v>0.005024893340872427</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03787345498271118</v>
+        <v>0.03012682080376033</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.007932935706425738</v>
+        <v>-0.02673571049134804</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.009553238901079456</v>
+        <v>0.007611530082331206</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0009906822905251609</v>
+        <v>0.01309522012706443</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.03132012402827247</v>
+        <v>-0.04416262641706398</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9970863324831934</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1836718092559586</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1834864192483825</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0428953814320998</v>
+        <v>0.0370957400825838</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.04237614760923573</v>
+        <v>0.03536988563002556</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1599641109553714</v>
+        <v>0.1883150069146643</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1604536328671998</v>
+        <v>0.1877729009201331</v>
       </c>
       <c r="P9" t="n">
-        <v>0.001618141409125537</v>
+        <v>-0.04409962948530675</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.001939945135960296</v>
+        <v>-0.03873651340236745</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.04515876113928785</v>
+        <v>-0.04472264151444355</v>
       </c>
     </row>
     <row r="10">
@@ -3177,55 +3177,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.0220866110558817</v>
+        <v>0.01472360525290107</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2301782790609064</v>
+        <v>0.1876091556642788</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.04786130376546804</v>
+        <v>-0.05224212812026775</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.01084543295593506</v>
+        <v>0.01757477001007249</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.01350520231868173</v>
+        <v>0.05510968081349163</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.194292402100531</v>
+        <v>-0.2254548528912803</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1823696166110977</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1836718092559586</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9971512870287391</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.009279674106381362</v>
+        <v>0.01704810916191106</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.009707136967591255</v>
+        <v>0.01848665100777222</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9706776205724464</v>
+        <v>0.9696509165282008</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9695100844200296</v>
+        <v>0.9669539204886587</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.0607027761467206</v>
+        <v>-0.0878049082799858</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.0906578831279594</v>
+        <v>-0.1382401039976145</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.1039851967048387</v>
+        <v>-0.08266424926688533</v>
       </c>
     </row>
     <row r="11">
@@ -3235,55 +3235,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02382112679428315</v>
+        <v>0.01003708046921653</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2264352361051738</v>
+        <v>0.1901241940642348</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.04911434213698183</v>
+        <v>-0.05208806136906943</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.01124038349574497</v>
+        <v>0.01818432274493406</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.01373981472560285</v>
+        <v>0.05742042486257416</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1975774392545799</v>
+        <v>-0.2217879199663348</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1812492674067038</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1834864192483825</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9971512870287391</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.009675569737380988</v>
+        <v>0.01810311967743594</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.01013661336192944</v>
+        <v>0.01956520675205822</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9695907087740681</v>
+        <v>0.9670015400032086</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9706369394626907</v>
+        <v>0.9698238640107629</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.0621148800620477</v>
+        <v>-0.08837139508859987</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.08944613144911655</v>
+        <v>-0.1414010778488642</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.103526613124189</v>
+        <v>-0.08330640112086375</v>
       </c>
     </row>
     <row r="12">
@@ -3293,55 +3293,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.00063019971322716</v>
+        <v>0.006323540982918517</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.03882601319489151</v>
+        <v>-0.04133501724961813</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.002653280595499959</v>
+        <v>0.006625810681363089</v>
       </c>
       <c r="E12" t="n">
-        <v>0.004013866086611113</v>
+        <v>0.001281369044809378</v>
       </c>
       <c r="F12" t="n">
-        <v>0.002559122545756721</v>
+        <v>0.0148484137414304</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03299936388869475</v>
+        <v>-0.04932924303995975</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.04289805790585169</v>
+        <v>0.04023786490292882</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.0428953814320998</v>
+        <v>0.0370957400825838</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.009279674106381362</v>
+        <v>0.01704810916191106</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.009675569737380988</v>
+        <v>0.01810311967743594</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9970863324831934</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1823696166110977</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1812492674067038</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.01231767746807113</v>
+        <v>0.002942327934691913</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01502653945814526</v>
+        <v>-0.001210200653009811</v>
       </c>
       <c r="R12" t="n">
-        <v>0.008037545769291303</v>
+        <v>-0.005925175760381951</v>
       </c>
     </row>
     <row r="13">
@@ -3351,55 +3351,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0001782829608940185</v>
+        <v>0.005024893340872427</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.03864526987692174</v>
+        <v>-0.03971246913060682</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.003254533094766197</v>
+        <v>0.01149773047380273</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003784897616836014</v>
+        <v>0.004518583366951265</v>
       </c>
       <c r="F13" t="n">
-        <v>0.002326493781731304</v>
+        <v>0.01545973551761951</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.03280337917313661</v>
+        <v>-0.04822478896997986</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.04225797328940766</v>
+        <v>0.03860301605995501</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.04237614760923573</v>
+        <v>0.03536988563002556</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.009707136967591255</v>
+        <v>0.01848665100777222</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.01013661336192944</v>
+        <v>0.01956520675205822</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9970863324831934</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1836718092559586</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1834864192483825</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.01282555572957506</v>
+        <v>0.005539878906070462</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01509284879446856</v>
+        <v>-0.001410813810908967</v>
       </c>
       <c r="R13" t="n">
-        <v>0.007909332230194155</v>
+        <v>-0.002697980306039323</v>
       </c>
     </row>
     <row r="14">
@@ -3409,55 +3409,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0220866110558817</v>
+        <v>0.01472360525290107</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2172948544401279</v>
+        <v>0.174535240044087</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.04910470280271267</v>
+        <v>-0.04387282533426976</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.01088924325053562</v>
+        <v>0.0241367490873715</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.01329062417733071</v>
+        <v>0.05542392840428872</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1946003793451011</v>
+        <v>-0.2262483945951002</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1606509652284165</v>
+        <v>0.1872726429861831</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1599641109553714</v>
+        <v>0.1883150069146643</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9706776205724464</v>
+        <v>0.9696509165282008</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9695907087740681</v>
+        <v>0.9670015400032086</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1823696166110977</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1836718092559586</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9971512870287391</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.06281470259382184</v>
+        <v>-0.08567273063650413</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.08508271108624274</v>
+        <v>-0.1382893596917447</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.1026404825093185</v>
+        <v>-0.06307456618403855</v>
       </c>
     </row>
     <row r="15">
@@ -3467,55 +3467,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02382112679428315</v>
+        <v>0.01003708046921653</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2135337740845544</v>
+        <v>0.177129220589404</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.05034905349114259</v>
+        <v>-0.04576988711758462</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.01117514480216602</v>
+        <v>0.02282065306916871</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.01350674418492096</v>
+        <v>0.05782580787150261</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.1979062783622375</v>
+        <v>-0.2225159628051405</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1607715958463615</v>
+        <v>0.1858009278165276</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1604536328671998</v>
+        <v>0.1877729009201331</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9695100844200296</v>
+        <v>0.9669539204886587</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9706369394626907</v>
+        <v>0.9698238640107629</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1812492674067038</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1834864192483825</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9971512870287391</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.06437996647699736</v>
+        <v>-0.08632769487232131</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.08413472641851127</v>
+        <v>-0.1413334912363589</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.1020413442389173</v>
+        <v>-0.06547567270772624</v>
       </c>
     </row>
     <row r="16">
@@ -3525,55 +3525,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03278743538109485</v>
+        <v>-0.002758053491249764</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.03201328201338007</v>
+        <v>-0.00676562110197514</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3406556471016648</v>
+        <v>0.4093212990469597</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.2787433568514107</v>
+        <v>-0.3877249920898949</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.01292697243921179</v>
+        <v>-0.1564160808683671</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.006391245112363666</v>
+        <v>0.02942446076127667</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.0002947113615300593</v>
+        <v>-0.04387746808687835</v>
       </c>
       <c r="I16" t="n">
-        <v>0.001618141409125537</v>
+        <v>-0.04409962948530675</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.0607027761467206</v>
+        <v>-0.0878049082799858</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0621148800620477</v>
+        <v>-0.08837139508859987</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.01231767746807113</v>
+        <v>0.002942327934691913</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.01282555572957506</v>
+        <v>0.005539878906070462</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.06281470259382184</v>
+        <v>-0.08567273063650413</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.06437996647699736</v>
+        <v>-0.08632769487232131</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.1753447427527878</v>
+        <v>0.4584585135066969</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2732713364047973</v>
+        <v>0.4567013410780267</v>
       </c>
     </row>
     <row r="17">
@@ -3583,55 +3583,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1205942488249974</v>
+        <v>-0.001002240431344328</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0328258624092044</v>
+        <v>-0.005345595269281599</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001870529627448011</v>
+        <v>0.2066151670637316</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.1080929040278991</v>
+        <v>-0.1586024865434902</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.09970895457070136</v>
+        <v>-0.1647400231064275</v>
       </c>
       <c r="G17" t="n">
-        <v>0.07152722109181084</v>
+        <v>0.05158892911250627</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0003036857201429574</v>
+        <v>-0.03736902422866833</v>
       </c>
       <c r="I17" t="n">
-        <v>0.001939945135960296</v>
+        <v>-0.03873651340236745</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.0906578831279594</v>
+        <v>-0.1382401039976145</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.08944613144911655</v>
+        <v>-0.1414010778488642</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01502653945814526</v>
+        <v>-0.001210200653009811</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01509284879446856</v>
+        <v>-0.001410813810908967</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.08508271108624274</v>
+        <v>-0.1382893596917447</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.08413472641851127</v>
+        <v>-0.1413334912363589</v>
       </c>
       <c r="P17" t="n">
-        <v>0.1753447427527878</v>
+        <v>0.4584585135066969</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3336034341496384</v>
+        <v>0.2513303264270469</v>
       </c>
     </row>
     <row r="18">
@@ -3641,52 +3641,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01704576668710548</v>
+        <v>0.009919557526798309</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0237062193131504</v>
+        <v>-0.005303252868709199</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2793745914621267</v>
+        <v>0.869525008625358</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1141084438783591</v>
+        <v>0.5125339500397817</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.04697018934361992</v>
+        <v>-0.1240789149193487</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02043428162814625</v>
+        <v>0.0287593572940852</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.0495693010698945</v>
+        <v>-0.0479201263120129</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.04515876113928785</v>
+        <v>-0.04472264151444355</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.1039851967048387</v>
+        <v>-0.08266424926688533</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.103526613124189</v>
+        <v>-0.08330640112086375</v>
       </c>
       <c r="L18" t="n">
-        <v>0.008037545769291303</v>
+        <v>-0.005925175760381951</v>
       </c>
       <c r="M18" t="n">
-        <v>0.007909332230194155</v>
+        <v>-0.002697980306039323</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.1026404825093185</v>
+        <v>-0.06307456618403855</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.1020413442389173</v>
+        <v>-0.06547567270772624</v>
       </c>
       <c r="P18" t="n">
-        <v>0.2732713364047973</v>
+        <v>0.4567013410780267</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3336034341496384</v>
+        <v>0.2513303264270469</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
